--- a/covid19/data_covid19_lab_by_time_2021-01-13.xlsx
+++ b/covid19/data_covid19_lab_by_time_2021-01-13.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O324"/>
+  <dimension ref="A1:O325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2750,10 +2750,10 @@
         <v>43922</v>
       </c>
       <c r="M39">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="N39">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O39">
         <v>5.5</v>
@@ -2933,13 +2933,13 @@
         <v>43925</v>
       </c>
       <c r="M42">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="N42">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O42">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="43">
@@ -3360,13 +3360,13 @@
         <v>43932</v>
       </c>
       <c r="M49">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="N49">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O49">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3482,10 +3482,10 @@
         <v>43934</v>
       </c>
       <c r="M51">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="N51">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O51">
         <v>6.2</v>
@@ -3726,10 +3726,10 @@
         <v>43938</v>
       </c>
       <c r="M55">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="N55">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O55">
         <v>4</v>
@@ -3909,10 +3909,10 @@
         <v>43941</v>
       </c>
       <c r="M58">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="N58">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O58">
         <v>3</v>
@@ -4153,10 +4153,10 @@
         <v>43945</v>
       </c>
       <c r="M62">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="N62">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O62">
         <v>2.1</v>
@@ -4336,10 +4336,10 @@
         <v>43948</v>
       </c>
       <c r="M65">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="N65">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O65">
         <v>2.3</v>
@@ -4641,10 +4641,10 @@
         <v>43953</v>
       </c>
       <c r="M70">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="N70">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O70">
         <v>1.9</v>
@@ -5068,10 +5068,10 @@
         <v>43960</v>
       </c>
       <c r="M77">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="N77">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O77">
         <v>0.8</v>
@@ -5678,13 +5678,13 @@
         <v>43970</v>
       </c>
       <c r="M87">
-        <v>4636</v>
+        <v>4635</v>
       </c>
       <c r="N87">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O87">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="88">
@@ -6227,10 +6227,10 @@
         <v>43979</v>
       </c>
       <c r="M96">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="N96">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O96">
         <v>0.6</v>
@@ -6532,13 +6532,13 @@
         <v>43984</v>
       </c>
       <c r="M101">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="N101">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O101">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="102">
@@ -7264,13 +7264,13 @@
         <v>43996</v>
       </c>
       <c r="M113">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="N113">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O113">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="114">
@@ -7935,10 +7935,10 @@
         <v>44007</v>
       </c>
       <c r="M124">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="N124">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O124">
         <v>0.5</v>
@@ -8850,13 +8850,13 @@
         <v>44022</v>
       </c>
       <c r="M139">
-        <v>4681</v>
+        <v>4682</v>
       </c>
       <c r="N139">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O139">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="140">
@@ -11046,10 +11046,10 @@
         <v>44058</v>
       </c>
       <c r="M175">
-        <v>5983</v>
+        <v>5982</v>
       </c>
       <c r="N175">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O175">
         <v>0.7</v>
@@ -11229,10 +11229,10 @@
         <v>44061</v>
       </c>
       <c r="M178">
-        <v>16932</v>
+        <v>16931</v>
       </c>
       <c r="N178">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O178">
         <v>0.3</v>
@@ -12327,10 +12327,10 @@
         <v>44079</v>
       </c>
       <c r="M196">
-        <v>5946</v>
+        <v>5947</v>
       </c>
       <c r="N196">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O196">
         <v>1.2</v>
@@ -12449,10 +12449,10 @@
         <v>44081</v>
       </c>
       <c r="M198">
-        <v>20903</v>
+        <v>20902</v>
       </c>
       <c r="N198">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O198">
         <v>0.6</v>
@@ -13730,10 +13730,10 @@
         <v>44102</v>
       </c>
       <c r="M219">
-        <v>19128</v>
+        <v>19127</v>
       </c>
       <c r="N219">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O219">
         <v>0.6</v>
@@ -14401,10 +14401,10 @@
         <v>44113</v>
       </c>
       <c r="M230">
-        <v>12675</v>
+        <v>12676</v>
       </c>
       <c r="N230">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O230">
         <v>1.1</v>
@@ -14767,10 +14767,10 @@
         <v>44119</v>
       </c>
       <c r="M236">
-        <v>13720</v>
+        <v>13719</v>
       </c>
       <c r="N236">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O236">
         <v>1</v>
@@ -15011,10 +15011,10 @@
         <v>44123</v>
       </c>
       <c r="M240">
-        <v>20526</v>
+        <v>20525</v>
       </c>
       <c r="N240">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O240">
         <v>1</v>
@@ -15194,10 +15194,10 @@
         <v>44126</v>
       </c>
       <c r="M243">
-        <v>15395</v>
+        <v>15397</v>
       </c>
       <c r="N243">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O243">
         <v>1.7</v>
@@ -15621,10 +15621,10 @@
         <v>44133</v>
       </c>
       <c r="M250">
-        <v>20689</v>
+        <v>20688</v>
       </c>
       <c r="N250">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O250">
         <v>2</v>
@@ -15926,10 +15926,10 @@
         <v>44138</v>
       </c>
       <c r="M255">
-        <v>26700</v>
+        <v>26702</v>
       </c>
       <c r="N255">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="O255">
         <v>2.4</v>
@@ -16353,10 +16353,10 @@
         <v>44145</v>
       </c>
       <c r="M262">
-        <v>25139</v>
+        <v>25138</v>
       </c>
       <c r="N262">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O262">
         <v>2.2</v>
@@ -16780,10 +16780,10 @@
         <v>44152</v>
       </c>
       <c r="M269">
-        <v>21236</v>
+        <v>21235</v>
       </c>
       <c r="N269">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="O269">
         <v>2.7</v>
@@ -16963,10 +16963,10 @@
         <v>44155</v>
       </c>
       <c r="M272">
-        <v>17656</v>
+        <v>17655</v>
       </c>
       <c r="N272">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O272">
         <v>2.7</v>
@@ -17024,10 +17024,10 @@
         <v>44156</v>
       </c>
       <c r="M273">
-        <v>8030</v>
+        <v>8029</v>
       </c>
       <c r="N273">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O273">
         <v>3.4</v>
@@ -18000,10 +18000,10 @@
         <v>44172</v>
       </c>
       <c r="M289">
-        <v>23237</v>
+        <v>23238</v>
       </c>
       <c r="N289">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O289">
         <v>2</v>
@@ -18183,10 +18183,10 @@
         <v>44175</v>
       </c>
       <c r="M292">
-        <v>18929</v>
+        <v>18928</v>
       </c>
       <c r="N292">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O292">
         <v>2.1</v>
@@ -18427,10 +18427,10 @@
         <v>44179</v>
       </c>
       <c r="M296">
-        <v>25624</v>
+        <v>25623</v>
       </c>
       <c r="N296">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O296">
         <v>1.8</v>
@@ -18488,7 +18488,7 @@
         <v>44180</v>
       </c>
       <c r="M297">
-        <v>22234</v>
+        <v>22236</v>
       </c>
       <c r="N297">
         <v>381</v>
@@ -18549,10 +18549,10 @@
         <v>44181</v>
       </c>
       <c r="M298">
-        <v>22728</v>
+        <v>22729</v>
       </c>
       <c r="N298">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="O298">
         <v>1.9</v>
@@ -18915,10 +18915,10 @@
         <v>44187</v>
       </c>
       <c r="M304">
-        <v>26059</v>
+        <v>26060</v>
       </c>
       <c r="N304">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O304">
         <v>1.9</v>
@@ -19159,10 +19159,10 @@
         <v>44191</v>
       </c>
       <c r="M308">
-        <v>10505</v>
+        <v>10504</v>
       </c>
       <c r="N308">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O308">
         <v>3.8</v>
@@ -19525,7 +19525,7 @@
         <v>44197</v>
       </c>
       <c r="M314">
-        <v>6954</v>
+        <v>6956</v>
       </c>
       <c r="N314">
         <v>312</v>
@@ -19589,10 +19589,10 @@
         <v>14847</v>
       </c>
       <c r="N315">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O315">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -19708,10 +19708,10 @@
         <v>44200</v>
       </c>
       <c r="M317">
-        <v>37069</v>
+        <v>37072</v>
       </c>
       <c r="N317">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="O317">
         <v>2.3</v>
@@ -19772,7 +19772,7 @@
         <v>30982</v>
       </c>
       <c r="N318">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="O318">
         <v>2.3</v>
@@ -19830,10 +19830,10 @@
         <v>44202</v>
       </c>
       <c r="M319">
-        <v>29170</v>
+        <v>29173</v>
       </c>
       <c r="N319">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="O319">
         <v>2.2</v>
@@ -19891,10 +19891,10 @@
         <v>44203</v>
       </c>
       <c r="M320">
-        <v>28517</v>
+        <v>28538</v>
       </c>
       <c r="N320">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="O320">
         <v>2.2</v>
@@ -19952,7 +19952,7 @@
         <v>44204</v>
       </c>
       <c r="M321">
-        <v>26853</v>
+        <v>26967</v>
       </c>
       <c r="N321">
         <v>583</v>
@@ -20013,13 +20013,13 @@
         <v>44205</v>
       </c>
       <c r="M322">
-        <v>14613</v>
+        <v>14996</v>
       </c>
       <c r="N322">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="O322">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="323">
@@ -20074,13 +20074,13 @@
         <v>44206</v>
       </c>
       <c r="M323">
-        <v>10909</v>
+        <v>13931</v>
       </c>
       <c r="N323">
-        <v>229</v>
+        <v>357</v>
       </c>
       <c r="O323">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="324">
@@ -20135,13 +20135,74 @@
         <v>44207</v>
       </c>
       <c r="M324">
-        <v>5208</v>
+        <v>27504</v>
       </c>
       <c r="N324">
-        <v>36</v>
+        <v>416</v>
       </c>
       <c r="O324">
-        <v>0.7</v>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D325">
+        <v>2020</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G325">
+        <v>2021</v>
+      </c>
+      <c r="H325">
+        <v>2</v>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>2020/2021</t>
+        </is>
+      </c>
+      <c r="K325">
+        <v>25</v>
+      </c>
+      <c r="L325" s="2">
+        <v>44208</v>
+      </c>
+      <c r="M325">
+        <v>4219</v>
+      </c>
+      <c r="N325">
+        <v>47</v>
+      </c>
+      <c r="O325">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
